--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00022/004_コーディング規約（JavaScript）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00022/004_コーディング規約（JavaScript）.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EA1A05-20FF-4B00-9F32-EF105A599280}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB57FBB2-55BF-413F-9A72-F1F1E94CFE2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1590" windowWidth="28440" windowHeight="8445" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="14520" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="01_テンプレート" sheetId="46" r:id="rId2"/>
+    <sheet name="01_テンプレート" sheetId="46" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$E$2</definedName>
@@ -581,7 +581,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
